--- a/data/trans_orig/IP21B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP21B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A3C4C2-E02C-4B77-80FA-6C737E6A06EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30BDE674-687D-46AF-A2E5-78A0B2D13DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{ABE0BAE9-D1FB-4D16-839B-5B66C73755AF}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0073EDAF-7BEA-4367-8B78-FA7A9D94EE49}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,21 +68,78 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>86,57%</t>
   </si>
   <si>
     <t>59,45%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>89,37%</t>
   </si>
   <si>
@@ -98,15 +155,9 @@
     <t>96,94%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>40,55%</t>
   </si>
   <si>
@@ -125,40 +176,37 @@
     <t>25,16%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -206,54 +254,6 @@
     <t>37,36%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
     <t>87,73%</t>
   </si>
   <si>
@@ -311,6 +311,42 @@
     <t>Menores según si estuvo en lista de espera en 2012 (Tasa respuesta: 4,14%)</t>
   </si>
   <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
     <t>80,38%</t>
   </si>
   <si>
@@ -359,34 +395,46 @@
     <t>42,45%</t>
   </si>
   <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
   </si>
   <si>
     <t>48,34%</t>
@@ -431,54 +479,6 @@
     <t>40,71%</t>
   </si>
   <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
     <t>81,97%</t>
   </si>
   <si>
@@ -536,6 +536,36 @@
     <t>Menores según si estuvo en lista de espera en 2015 (Tasa respuesta: 2,92%)</t>
   </si>
   <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
     <t>86,82%</t>
   </si>
   <si>
@@ -584,28 +614,28 @@
     <t>43,68%</t>
   </si>
   <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
   </si>
   <si>
     <t>43,12%</t>
@@ -650,36 +680,6 @@
     <t>56,33%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
     <t>78,77%</t>
   </si>
   <si>
@@ -737,6 +737,30 @@
     <t>Menores según si estuvo en lista de espera en 2023 (Tasa respuesta: 1,72%)</t>
   </si>
   <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
     <t>69,74%</t>
   </si>
   <si>
@@ -767,28 +791,16 @@
     <t>57,39%</t>
   </si>
   <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
   </si>
   <si>
     <t>61,76%</t>
@@ -813,18 +825,6 @@
   </si>
   <si>
     <t>72,04%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
   </si>
   <si>
     <t>74,09%</t>
@@ -1270,7 +1270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DA8C1A-6241-4891-BF10-12445C6E3D91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DB2F55-DCFF-46AC-8012-DF037D8D00CD}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1388,10 +1388,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>8431</v>
+        <v>3273</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1403,85 +1403,81 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7">
-        <v>9927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>18357</v>
+        <v>3273</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1308</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2489</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1490,54 +1486,52 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>9739</v>
+        <v>3273</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>18</v>
-      </c>
-      <c r="I6" s="7">
-        <v>11107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>20846</v>
+        <v>3273</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1549,13 +1543,13 @@
         <v>1276</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -1564,13 +1558,13 @@
         <v>3284</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -1579,19 +1573,19 @@
         <v>4560</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1600,13 +1594,13 @@
         <v>719</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1615,13 +1609,13 @@
         <v>576</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -1630,13 +1624,13 @@
         <v>1295</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,13 +1645,13 @@
         <v>1995</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -1666,13 +1660,13 @@
         <v>3860</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -1681,117 +1675,117 @@
         <v>5855</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>9456</v>
+        <v>8431</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>3026</v>
+        <v>9927</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N10" s="7">
-        <v>12482</v>
+        <v>18357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>712</v>
+        <v>1180</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>2028</v>
+        <v>2489</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,149 +1794,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>10771</v>
+        <v>9739</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I12" s="7">
-        <v>3738</v>
+        <v>11107</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N12" s="7">
-        <v>14510</v>
+        <v>20846</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>3273</v>
+        <v>6649</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6706</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>3273</v>
+        <v>13354</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,148 +1949,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D15" s="7">
-        <v>3273</v>
+        <v>7375</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I15" s="7">
+        <v>6706</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N15" s="7">
-        <v>3273</v>
+        <v>14080</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>6649</v>
+        <v>9456</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3026</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>18</v>
+      </c>
+      <c r="N16" s="7">
+        <v>12482</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>11</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6706</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="7">
-        <v>21</v>
-      </c>
-      <c r="N16" s="7">
-        <v>13354</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1315</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
-        <v>726</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>712</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2028</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>726</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>70</v>
@@ -2104,49 +2104,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>7375</v>
+        <v>10771</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>6706</v>
+        <v>3738</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N18" s="7">
-        <v>14080</v>
+        <v>14510</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,7 +2205,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>6</v>
@@ -2265,13 +2265,13 @@
         <v>33154</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -2280,13 +2280,13 @@
         <v>25411</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>89</v>
@@ -2295,13 +2295,13 @@
         <v>58565</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2322,7 +2322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AC63D7-6DFC-4928-A23E-FCF06C8059F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DDCD52-D82A-45A1-951A-8A762793F72F}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2440,100 +2440,96 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>5328</v>
+        <v>2156</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7">
-        <v>7805</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>13133</v>
+        <v>2156</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2696</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>3996</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,54 +2538,52 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>6628</v>
+        <v>2156</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7">
-        <v>10501</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>17129</v>
+        <v>2156</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2601,13 +2595,13 @@
         <v>4087</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2616,13 +2610,13 @@
         <v>4114</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -2631,19 +2625,19 @@
         <v>8201</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -2652,13 +2646,13 @@
         <v>682</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2667,13 +2661,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2682,13 +2676,13 @@
         <v>683</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2697,13 @@
         <v>4769</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -2718,13 +2712,13 @@
         <v>4114</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -2733,117 +2727,117 @@
         <v>8884</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>7164</v>
+        <v>5328</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>6564</v>
+        <v>7805</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>13728</v>
+        <v>13133</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1984</v>
+        <v>1300</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>1657</v>
+        <v>2696</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>3641</v>
+        <v>3996</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,146 +2846,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>9148</v>
+        <v>6628</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I12" s="7">
-        <v>8221</v>
+        <v>10501</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N12" s="7">
-        <v>17369</v>
+        <v>17129</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>2156</v>
+        <v>7888</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5190</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N13" s="7">
-        <v>2156</v>
+        <v>13077</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1888</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1888</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>131</v>
@@ -3003,91 +3001,93 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>2156</v>
+        <v>9776</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5190</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="N15" s="7">
-        <v>2156</v>
+        <v>14965</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>7888</v>
+        <v>7164</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6564</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5190</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>135</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N16" s="7">
-        <v>13077</v>
+        <v>13728</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>136</v>
@@ -3102,43 +3102,43 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>1888</v>
+        <v>1984</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1657</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>142</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>1888</v>
+        <v>3641</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>143</v>
@@ -3156,49 +3156,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>9776</v>
+        <v>9148</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>5190</v>
+        <v>8221</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
       </c>
       <c r="N18" s="7">
-        <v>14965</v>
+        <v>17369</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,7 +3257,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>9</v>
@@ -3317,13 +3317,13 @@
         <v>32477</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>41</v>
@@ -3332,13 +3332,13 @@
         <v>28026</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>87</v>
@@ -3347,13 +3347,13 @@
         <v>60503</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3374,7 +3374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A803FE4-303F-4BFC-AB4C-D42DE063E301}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E3AF66-18F0-4352-B78D-E7496039A7ED}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3492,100 +3492,96 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>5201</v>
+        <v>1047</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1047</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7">
-        <v>6513</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M4" s="7">
-        <v>19</v>
-      </c>
-      <c r="N4" s="7">
-        <v>11714</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>3365</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,54 +3590,52 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>5991</v>
+        <v>1047</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
-      </c>
-      <c r="I6" s="7">
-        <v>9088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>15079</v>
+        <v>1047</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3653,13 +3647,13 @@
         <v>4211</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3668,13 +3662,13 @@
         <v>3952</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -3683,19 +3677,19 @@
         <v>8163</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -3704,13 +3698,13 @@
         <v>1494</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3719,13 +3713,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3734,13 +3728,13 @@
         <v>1494</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,13 +3749,13 @@
         <v>5705</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -3770,13 +3764,13 @@
         <v>3952</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -3785,117 +3779,117 @@
         <v>9657</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>4320</v>
+        <v>5201</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>2962</v>
+        <v>6513</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>7282</v>
+        <v>11714</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>670</v>
+        <v>790</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>2203</v>
+        <v>2575</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>2873</v>
+        <v>3365</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,149 +3898,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>4990</v>
+        <v>5991</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I12" s="7">
-        <v>5165</v>
+        <v>9088</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N12" s="7">
-        <v>10155</v>
+        <v>15079</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1047</v>
+        <v>1525</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>3024</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>1047</v>
+        <v>4548</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,148 +4053,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>1047</v>
+        <v>2965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3024</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N15" s="7">
-        <v>1047</v>
+        <v>5988</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>1525</v>
+        <v>4320</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2962</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" s="7">
+        <v>7282</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3024</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="7">
-        <v>7</v>
-      </c>
-      <c r="N16" s="7">
-        <v>4548</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1440</v>
+        <v>670</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2203</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2873</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M17" s="7">
-        <v>2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1440</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>212</v>
@@ -4208,49 +4208,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>2965</v>
+        <v>4990</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>3024</v>
+        <v>5165</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N18" s="7">
-        <v>5988</v>
+        <v>10155</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,7 +4309,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>6</v>
@@ -4369,13 +4369,13 @@
         <v>20697</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -4384,13 +4384,13 @@
         <v>21228</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>62</v>
@@ -4399,13 +4399,13 @@
         <v>41925</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4426,7 +4426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DD4BFB-05FA-4163-86FD-F842D393DEE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D573C57F-2C97-491D-9543-8ADBCD322B72}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4544,100 +4544,88 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7">
-        <v>3166</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
-      </c>
-      <c r="N4" s="7">
-        <v>5146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1374</v>
-      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,54 +4634,48 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7">
-        <v>4540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
-      </c>
-      <c r="N6" s="7">
-        <v>6520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4705,13 +4687,13 @@
         <v>2848</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4720,13 +4702,13 @@
         <v>1390</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4735,19 +4717,19 @@
         <v>4238</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4756,13 +4738,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4771,13 +4753,13 @@
         <v>605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4786,13 +4768,13 @@
         <v>605</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4789,13 @@
         <v>2848</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4822,13 +4804,13 @@
         <v>1995</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -4837,87 +4819,87 @@
         <v>4843</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>2705</v>
+        <v>3166</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>746</v>
+        <v>1980</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>3451</v>
+        <v>5146</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1675</v>
+        <v>1374</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4926,28 +4908,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1675</v>
+        <v>1374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,54 +4938,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>4380</v>
+        <v>4540</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>746</v>
+        <v>1980</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>5126</v>
+        <v>6520</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5013,84 +4995,92 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2767</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2767</v>
+      </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1695</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1695</v>
+      </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,136 +5093,144 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4462</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="N15" s="7">
+        <v>4462</v>
+      </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2705</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>2767</v>
+        <v>746</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>165</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>2767</v>
+        <v>3451</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1675</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
       <c r="I17" s="7">
-        <v>1695</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1695</v>
+        <v>1675</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>261</v>
@@ -5244,47 +5242,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4380</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>4462</v>
+        <v>746</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N18" s="7">
-        <v>4462</v>
+        <v>5126</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,7 +5343,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
@@ -5403,13 +5403,13 @@
         <v>11768</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -5418,13 +5418,13 @@
         <v>9182</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>33</v>
@@ -5433,13 +5433,13 @@
         <v>20950</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP21B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP21B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30BDE674-687D-46AF-A2E5-78A0B2D13DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28B10FB3-5A7E-4F10-8862-9BFB4CBC3707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0073EDAF-7BEA-4367-8B78-FA7A9D94EE49}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B779794F-F9B9-47B0-8926-44C090052F3C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="283">
   <si>
     <t>Menores según si estuvo en lista de espera en 2007 (Tasa respuesta: 4,23%)</t>
   </si>
@@ -71,6 +71,21 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -83,106 +98,106 @@
     <t>100%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
     <t>63,97%</t>
   </si>
   <si>
     <t>85,07%</t>
   </si>
   <si>
-    <t>35,95%</t>
+    <t>34,69%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
+    <t>43,58%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
     <t>86,57%</t>
   </si>
   <si>
-    <t>59,45%</t>
+    <t>59,41%</t>
   </si>
   <si>
     <t>89,37%</t>
   </si>
   <si>
-    <t>65,35%</t>
+    <t>67,29%</t>
   </si>
   <si>
     <t>88,06%</t>
   </si>
   <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>61,18%</t>
+    <t>60,71%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -191,427 +206,433 @@
     <t>94,84%</t>
   </si>
   <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>74,67%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
     <t>87,79%</t>
   </si>
   <si>
-    <t>63,22%</t>
+    <t>63,01%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>21,2%</t>
+    <t>21,24%</t>
   </si>
   <si>
     <t>86,03%</t>
   </si>
   <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>90,28%</t>
   </si>
   <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo en lista de espera en 2012 (Tasa respuesta: 4,14%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo en lista de espera en 2012 (Tasa respuesta: 4,14%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
   </si>
   <si>
     <t>79,84%</t>
   </si>
   <si>
-    <t>43,97%</t>
+    <t>49,94%</t>
   </si>
   <si>
     <t>79,04%</t>
   </si>
   <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>84,47%</t>
   </si>
   <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
   <si>
     <t>83,13%</t>
   </si>
   <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>Menores según si estuvo en lista de espera en 2015 (Tasa respuesta: 2,92%)</t>
   </si>
   <si>
+    <t>77,15%</t>
+  </si>
+  <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>77,15%</t>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
   </si>
   <si>
     <t>73,81%</t>
   </si>
   <si>
-    <t>35,16%</t>
+    <t>36,42%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
   </si>
   <si>
     <t>86,82%</t>
   </si>
   <si>
-    <t>38,44%</t>
+    <t>49,12%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>77,69%</t>
   </si>
   <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
   </si>
   <si>
     <t>51,43%</t>
@@ -623,120 +644,120 @@
     <t>75,95%</t>
   </si>
   <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
   </si>
   <si>
     <t>57,35%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>71,71%</t>
   </si>
   <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
   </si>
   <si>
     <t>78,77%</t>
   </si>
   <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
   </si>
   <si>
     <t>77,49%</t>
   </si>
   <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
   </si>
   <si>
     <t>78,12%</t>
   </si>
   <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
   </si>
   <si>
     <t>Menores según si estuvo en lista de espera en 2023 (Tasa respuesta: 1,72%)</t>
   </si>
   <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
     <t>69,69%</t>
   </si>
   <si>
@@ -746,25 +767,28 @@
     <t>87,52%</t>
   </si>
   <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
   </si>
   <si>
     <t>69,74%</t>
   </si>
   <si>
-    <t>20,23%</t>
+    <t>20,67%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -773,112 +797,97 @@
     <t>78,93%</t>
   </si>
   <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
   </si>
   <si>
     <t>61,76%</t>
   </si>
   <si>
-    <t>20,57%</t>
+    <t>19,22%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>74,96%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
 </sst>
 </file>
@@ -889,7 +898,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -985,39 +994,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1069,7 +1078,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1180,13 +1189,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1195,6 +1197,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1259,19 +1268,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DB2F55-DCFF-46AC-8012-DF037D8D00CD}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF617EEB-2AF4-4AA2-8491-8775D577A10D}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1388,10 +1417,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3273</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1416,10 +1445,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>3273</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1437,10 +1466,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>3273</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
@@ -1465,10 +1494,10 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>3273</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1492,13 +1521,13 @@
         <v>3273</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1520,13 +1549,13 @@
         <v>3273</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1537,49 +1566,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1276</v>
+        <v>719</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>3284</v>
+        <v>576</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>4560</v>
+        <v>1295</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1588,49 +1617,49 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>719</v>
+        <v>1276</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>576</v>
+        <v>3284</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>1295</v>
+        <v>4560</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1645,13 +1674,13 @@
         <v>1995</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -1660,13 +1689,13 @@
         <v>3860</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -1675,13 +1704,13 @@
         <v>5855</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1692,40 +1721,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>8431</v>
+        <v>1308</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>9927</v>
+        <v>1180</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" s="7">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>18357</v>
+        <v>2489</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>35</v>
@@ -1743,40 +1772,40 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>1308</v>
+        <v>8431</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I11" s="7">
-        <v>1180</v>
+        <v>9927</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="N11" s="7">
-        <v>2489</v>
+        <v>18357</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>42</v>
@@ -1800,13 +1829,13 @@
         <v>9739</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -1815,13 +1844,13 @@
         <v>11107</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
         <v>33</v>
@@ -1830,13 +1859,13 @@
         <v>20846</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,49 +1876,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>6649</v>
+        <v>726</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>6706</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>13354</v>
+        <v>726</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,49 +1927,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>726</v>
+        <v>6649</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>6706</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="N14" s="7">
-        <v>726</v>
+        <v>13354</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1984,13 @@
         <v>7375</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
         <v>11</v>
@@ -1970,13 +1999,13 @@
         <v>6706</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7">
         <v>22</v>
@@ -1985,13 +2014,13 @@
         <v>14080</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,40 +2031,40 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>9456</v>
+        <v>1315</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>3026</v>
+        <v>712</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M16" s="7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>12482</v>
+        <v>2028</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>61</v>
@@ -2053,40 +2082,40 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>1315</v>
+        <v>9456</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>712</v>
+        <v>3026</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="N17" s="7">
-        <v>2028</v>
+        <v>12482</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>68</v>
@@ -2110,13 +2139,13 @@
         <v>10771</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -2125,13 +2154,13 @@
         <v>3738</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7">
         <v>21</v>
@@ -2140,13 +2169,13 @@
         <v>14510</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,10 +2186,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>29085</v>
+        <v>4069</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>71</v>
@@ -2172,10 +2201,10 @@
         <v>73</v>
       </c>
       <c r="H19" s="7">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>22942</v>
+        <v>2469</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>74</v>
@@ -2187,10 +2216,10 @@
         <v>76</v>
       </c>
       <c r="M19" s="7">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>52027</v>
+        <v>6538</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>77</v>
@@ -2208,10 +2237,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D20" s="7">
-        <v>4069</v>
+        <v>29085</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>80</v>
@@ -2223,10 +2252,10 @@
         <v>82</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="I20" s="7">
-        <v>2469</v>
+        <v>22942</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>83</v>
@@ -2238,10 +2267,10 @@
         <v>85</v>
       </c>
       <c r="M20" s="7">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="N20" s="7">
-        <v>6538</v>
+        <v>52027</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>86</v>
@@ -2265,13 +2294,13 @@
         <v>33154</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -2280,13 +2309,13 @@
         <v>25411</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" s="7">
         <v>89</v>
@@ -2295,13 +2324,18 @@
         <v>58565</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2322,8 +2356,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DDCD52-D82A-45A1-951A-8A762793F72F}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D0F3C5-75DE-433A-889A-EF45552EAB64}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2339,7 +2373,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2440,19 +2474,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2156</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2468,19 +2502,19 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>2156</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,19 +2523,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2156</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2517,19 +2551,19 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>2156</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2578,13 @@
         <v>2156</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2572,13 +2606,13 @@
         <v>2156</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,49 +2623,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>4087</v>
+        <v>682</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>4114</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>8201</v>
+        <v>683</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,49 +2674,49 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>682</v>
+        <v>4087</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>4114</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>683</v>
+        <v>8201</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2731,13 @@
         <v>4769</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -2712,13 +2746,13 @@
         <v>4114</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -2727,13 +2761,13 @@
         <v>8884</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,49 +2778,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>5328</v>
+        <v>1300</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>7805</v>
+        <v>2696</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>13133</v>
+        <v>3996</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,49 +2829,49 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>1300</v>
+        <v>5328</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>2696</v>
+        <v>7805</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N11" s="7">
-        <v>3996</v>
+        <v>13133</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2886,13 @@
         <v>6628</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -2867,13 +2901,13 @@
         <v>10501</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -2882,13 +2916,13 @@
         <v>17129</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,49 +2933,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>7888</v>
+        <v>1888</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>5190</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M13" s="7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>13077</v>
+        <v>1888</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,49 +2984,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>1888</v>
+        <v>7888</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>5190</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N14" s="7">
-        <v>1888</v>
+        <v>13077</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3041,13 @@
         <v>9776</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
@@ -3022,13 +3056,13 @@
         <v>5190</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7">
         <v>23</v>
@@ -3037,13 +3071,13 @@
         <v>14965</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,49 +3088,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>7164</v>
+        <v>1984</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>6564</v>
+        <v>1657</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="M16" s="7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>13728</v>
+        <v>3641</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,49 +3139,49 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>1984</v>
+        <v>7164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>1657</v>
+        <v>6564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N17" s="7">
-        <v>3641</v>
+        <v>13728</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3196,13 @@
         <v>9148</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -3177,13 +3211,13 @@
         <v>8221</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -3192,13 +3226,13 @@
         <v>17369</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,49 +3243,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>26623</v>
+        <v>5854</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H19" s="7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>23673</v>
+        <v>4353</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M19" s="7">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="N19" s="7">
-        <v>50296</v>
+        <v>10207</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,49 +3294,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7">
-        <v>5854</v>
+        <v>26623</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H20" s="7">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="I20" s="7">
-        <v>4353</v>
+        <v>23673</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M20" s="7">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="N20" s="7">
-        <v>10207</v>
+        <v>50296</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3351,13 @@
         <v>32477</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7">
         <v>41</v>
@@ -3332,13 +3366,13 @@
         <v>28026</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" s="7">
         <v>87</v>
@@ -3347,13 +3381,18 @@
         <v>60503</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3374,8 +3413,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E3AF66-18F0-4352-B78D-E7496039A7ED}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F712E7F-F58E-4BFA-BAD6-8DE71C6B422F}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3391,7 +3430,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3492,19 +3531,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1047</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3520,19 +3559,19 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>1047</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,19 +3580,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1047</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3569,19 +3608,19 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1047</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3635,13 @@
         <v>1047</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3624,13 +3663,13 @@
         <v>1047</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,49 +3680,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>4211</v>
+        <v>1494</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>3952</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>8163</v>
+        <v>1494</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,49 +3731,49 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>1494</v>
+        <v>4211</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>3952</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>1494</v>
+        <v>8163</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3788,13 @@
         <v>5705</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -3764,13 +3803,13 @@
         <v>3952</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -3779,13 +3818,13 @@
         <v>9657</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,49 +3835,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>5201</v>
+        <v>790</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>6513</v>
+        <v>2575</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>11714</v>
+        <v>3365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,49 +3886,49 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>790</v>
+        <v>5201</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>2575</v>
+        <v>6513</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="N11" s="7">
-        <v>3365</v>
+        <v>11714</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3943,13 @@
         <v>5991</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -3919,13 +3958,13 @@
         <v>9088</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -3934,13 +3973,13 @@
         <v>15079</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,46 +3993,46 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1525</v>
+        <v>1440</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>3024</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>4548</v>
+        <v>1440</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,46 +4044,46 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>1440</v>
+        <v>1525</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>3024</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>1440</v>
+        <v>4548</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4098,13 @@
         <v>2965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -4074,13 +4113,13 @@
         <v>3024</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -4089,13 +4128,13 @@
         <v>5988</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,49 +4145,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>4320</v>
+        <v>670</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2203</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M16" s="7">
         <v>4</v>
       </c>
-      <c r="I16" s="7">
-        <v>2962</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M16" s="7">
-        <v>10</v>
-      </c>
       <c r="N16" s="7">
-        <v>7282</v>
+        <v>2873</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,49 +4196,49 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>670</v>
+        <v>4320</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>2203</v>
+        <v>2962</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>2873</v>
+        <v>7282</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4253,13 @@
         <v>4990</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -4229,13 +4268,13 @@
         <v>5165</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -4244,13 +4283,13 @@
         <v>10155</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,49 +4300,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>16303</v>
+        <v>4394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H19" s="7">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>16451</v>
+        <v>4777</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="N19" s="7">
-        <v>32754</v>
+        <v>9171</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,49 +4351,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D20" s="7">
-        <v>4394</v>
+        <v>16303</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H20" s="7">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I20" s="7">
-        <v>4777</v>
+        <v>16451</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M20" s="7">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="N20" s="7">
-        <v>9171</v>
+        <v>32754</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4408,13 @@
         <v>20697</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -4384,13 +4423,13 @@
         <v>21228</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" s="7">
         <v>62</v>
@@ -4399,13 +4438,18 @@
         <v>41925</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4426,8 +4470,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D573C57F-2C97-491D-9543-8ADBCD322B72}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10567556-0D7A-4E87-B854-5CF6903584AF}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4443,7 +4487,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4681,49 +4725,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2848</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1390</v>
+        <v>605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>605</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="7">
-        <v>8</v>
-      </c>
-      <c r="N7" s="7">
-        <v>4238</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,49 +4776,49 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>2848</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>605</v>
+        <v>1390</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>605</v>
+        <v>4238</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4833,13 @@
         <v>2848</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4804,13 +4848,13 @@
         <v>1995</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -4819,13 +4863,13 @@
         <v>4843</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,49 +4880,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3166</v>
+        <v>1374</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>5146</v>
+        <v>1374</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,49 +4931,49 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>1374</v>
+        <v>3166</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>1374</v>
+        <v>5146</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +4988,13 @@
         <v>4540</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -4959,13 +5003,13 @@
         <v>1980</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -4974,13 +5018,13 @@
         <v>6520</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,34 +5048,34 @@
         <v>14</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>2767</v>
+        <v>1695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1695</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2767</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,34 +5097,34 @@
         <v>14</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>1695</v>
+        <v>2767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>1695</v>
+        <v>2767</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5152,13 @@
         <v>4462</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -5123,13 +5167,13 @@
         <v>4462</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,49 +5184,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2705</v>
+        <v>1675</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>746</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>3451</v>
+        <v>1675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,49 +5235,49 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>1675</v>
+        <v>2705</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>746</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>1675</v>
+        <v>3451</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5292,13 @@
         <v>4380</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -5263,13 +5307,13 @@
         <v>746</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -5278,13 +5322,13 @@
         <v>5126</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,49 +5339,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>8719</v>
+        <v>3049</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H19" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>6883</v>
+        <v>2299</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>15602</v>
+        <v>5348</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,49 +5390,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D20" s="7">
-        <v>3049</v>
+        <v>8719</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7">
-        <v>2299</v>
+        <v>6883</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N20" s="7">
-        <v>5348</v>
+        <v>15602</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,13 +5447,13 @@
         <v>11768</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -5418,13 +5462,13 @@
         <v>9182</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" s="7">
         <v>33</v>
@@ -5433,13 +5477,18 @@
         <v>20950</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP21B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP21B-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28B10FB3-5A7E-4F10-8862-9BFB4CBC3707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5410C9A-36AD-454A-9A70-150E402FC524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B779794F-F9B9-47B0-8926-44C090052F3C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{75F03843-AE6D-4B48-B804-97938DCD3487}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="279">
   <si>
     <t>Menores según si estuvo en lista de espera en 2007 (Tasa respuesta: 4,23%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -98,7 +98,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>36,03%</t>
@@ -107,13 +107,13 @@
     <t>14,93%</t>
   </si>
   <si>
-    <t>65,31%</t>
+    <t>65,01%</t>
   </si>
   <si>
     <t>22,12%</t>
   </si>
   <si>
-    <t>56,42%</t>
+    <t>64,2%</t>
   </si>
   <si>
     <t>63,97%</t>
@@ -122,67 +122,67 @@
     <t>85,07%</t>
   </si>
   <si>
-    <t>34,69%</t>
+    <t>34,99%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>40,59%</t>
+    <t>39,52%</t>
   </si>
   <si>
     <t>10,63%</t>
   </si>
   <si>
-    <t>32,71%</t>
+    <t>32,34%</t>
   </si>
   <si>
     <t>11,94%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
   <si>
     <t>86,57%</t>
   </si>
   <si>
-    <t>59,41%</t>
+    <t>60,48%</t>
   </si>
   <si>
     <t>89,37%</t>
   </si>
   <si>
-    <t>67,29%</t>
+    <t>67,66%</t>
   </si>
   <si>
     <t>88,06%</t>
   </si>
   <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>39,29%</t>
+    <t>38,87%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -191,13 +191,13 @@
     <t>5,16%</t>
   </si>
   <si>
-    <t>25,33%</t>
+    <t>24,95%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>60,71%</t>
+    <t>61,13%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -206,7 +206,7 @@
     <t>94,84%</t>
   </si>
   <si>
-    <t>74,67%</t>
+    <t>75,05%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -215,43 +215,43 @@
     <t>12,21%</t>
   </si>
   <si>
-    <t>36,99%</t>
+    <t>37,14%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>78,76%</t>
+    <t>79,65%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
   </si>
   <si>
     <t>87,79%</t>
   </si>
   <si>
-    <t>63,01%</t>
+    <t>62,86%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>21,24%</t>
+    <t>20,35%</t>
   </si>
   <si>
     <t>86,03%</t>
   </si>
   <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>12,27%</t>
@@ -260,31 +260,31 @@
     <t>4,34%</t>
   </si>
   <si>
-    <t>24,66%</t>
+    <t>24,53%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>75,34%</t>
+    <t>75,47%</t>
   </si>
   <si>
     <t>95,66%</t>
@@ -293,19 +293,19 @@
     <t>90,28%</t>
   </si>
   <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>88,84%</t>
   </si>
   <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -323,7 +323,7 @@
     <t>14,31%</t>
   </si>
   <si>
-    <t>57,96%</t>
+    <t>57,95%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -332,13 +332,13 @@
     <t>7,68%</t>
   </si>
   <si>
-    <t>31,37%</t>
+    <t>31,09%</t>
   </si>
   <si>
     <t>85,69%</t>
   </si>
   <si>
-    <t>42,04%</t>
+    <t>42,05%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -347,64 +347,64 @@
     <t>92,32%</t>
   </si>
   <si>
-    <t>68,63%</t>
+    <t>68,91%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>59,27%</t>
+    <t>59,3%</t>
   </si>
   <si>
     <t>25,67%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
   </si>
   <si>
     <t>23,33%</t>
   </si>
   <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
   </si>
   <si>
     <t>80,38%</t>
   </si>
   <si>
-    <t>40,73%</t>
+    <t>40,7%</t>
   </si>
   <si>
     <t>74,33%</t>
   </si>
   <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
   </si>
   <si>
     <t>76,67%</t>
   </si>
   <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
   </si>
   <si>
     <t>19,31%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -413,19 +413,16 @@
     <t>12,61%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>3,87%</t>
   </si>
   <si>
     <t>80,69%</t>
   </si>
   <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -434,115 +431,106 @@
     <t>87,39%</t>
   </si>
   <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>96,13%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
+    <t>54,35%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>50,06%</t>
+    <t>55,69%</t>
   </si>
   <si>
     <t>20,96%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
+    <t>45,65%</t>
   </si>
   <si>
     <t>79,84%</t>
   </si>
   <si>
-    <t>49,94%</t>
+    <t>44,31%</t>
   </si>
   <si>
     <t>79,04%</t>
   </si>
   <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
   </si>
   <si>
     <t>16,87%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>84,47%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
   </si>
   <si>
     <t>83,13%</t>
   </si>
   <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo en lista de espera en 2015 (Tasa respuesta: 2,92%)</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo en lista de espera en 2016 (Tasa respuesta: 2,92%)</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -554,73 +542,73 @@
     <t>26,19%</t>
   </si>
   <si>
-    <t>63,58%</t>
+    <t>64,89%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>47,17%</t>
+    <t>46,02%</t>
   </si>
   <si>
     <t>73,81%</t>
   </si>
   <si>
-    <t>36,42%</t>
+    <t>35,11%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>52,83%</t>
+    <t>53,98%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>50,88%</t>
+    <t>49,34%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
   </si>
   <si>
     <t>22,31%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
   </si>
   <si>
     <t>86,82%</t>
   </si>
   <si>
-    <t>49,12%</t>
+    <t>50,66%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>77,69%</t>
   </si>
   <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>48,57%</t>
@@ -632,7 +620,7 @@
     <t>24,05%</t>
   </si>
   <si>
-    <t>62,13%</t>
+    <t>67,16%</t>
   </si>
   <si>
     <t>51,43%</t>
@@ -644,103 +632,103 @@
     <t>75,95%</t>
   </si>
   <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
   </si>
   <si>
     <t>42,65%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
   <si>
     <t>28,29%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
   </si>
   <si>
     <t>57,35%</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
   </si>
   <si>
     <t>71,71%</t>
   </si>
   <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>21,23%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
   </si>
   <si>
     <t>22,51%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
   </si>
   <si>
     <t>78,77%</t>
   </si>
   <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
   </si>
   <si>
     <t>77,49%</t>
   </si>
   <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>78,12%</t>
   </si>
   <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>Menores según si estuvo en lista de espera en 2023 (Tasa respuesta: 1,72%)</t>
@@ -755,7 +743,7 @@
     <t>12,48%</t>
   </si>
   <si>
-    <t>50,29%</t>
+    <t>57,76%</t>
   </si>
   <si>
     <t>69,69%</t>
@@ -767,13 +755,13 @@
     <t>87,52%</t>
   </si>
   <si>
-    <t>49,71%</t>
+    <t>42,24%</t>
   </si>
   <si>
     <t>30,26%</t>
   </si>
   <si>
-    <t>79,33%</t>
+    <t>78,55%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -782,13 +770,13 @@
     <t>21,07%</t>
   </si>
   <si>
-    <t>55,53%</t>
+    <t>62,18%</t>
   </si>
   <si>
     <t>69,74%</t>
   </si>
   <si>
-    <t>20,67%</t>
+    <t>21,45%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -797,97 +785,97 @@
     <t>78,93%</t>
   </si>
   <si>
-    <t>44,47%</t>
+    <t>37,82%</t>
   </si>
   <si>
     <t>37,98%</t>
   </si>
   <si>
-    <t>76,93%</t>
+    <t>72,65%</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>23,07%</t>
+    <t>27,35%</t>
   </si>
   <si>
     <t>38,24%</t>
   </si>
   <si>
-    <t>80,78%</t>
+    <t>79,08%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>72,58%</t>
+    <t>72,3%</t>
   </si>
   <si>
     <t>61,76%</t>
   </si>
   <si>
-    <t>19,22%</t>
+    <t>20,92%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>27,42%</t>
+    <t>27,7%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
   </si>
   <si>
     <t>25,04%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>74,96%</t>
   </si>
   <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF617EEB-2AF4-4AA2-8491-8775D577A10D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75EF541-AF45-4203-A1B5-B82C2059F4CE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2356,7 +2344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D0F3C5-75DE-433A-889A-EF45552EAB64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957082EE-2038-4314-8628-4373414724C5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2975,7 +2963,7 @@
         <v>124</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +2978,13 @@
         <v>7888</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3008,7 +2996,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -3020,13 +3008,13 @@
         <v>13077</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3082,13 @@
         <v>1984</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3109,13 +3097,13 @@
         <v>1657</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3124,13 +3112,13 @@
         <v>3641</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3133,13 @@
         <v>7164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -3160,10 +3148,10 @@
         <v>6564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -3175,13 +3163,13 @@
         <v>13728</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3237,13 @@
         <v>5854</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -3264,13 +3252,13 @@
         <v>4353</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -3279,13 +3267,13 @@
         <v>10207</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3288,13 @@
         <v>26623</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -3315,13 +3303,13 @@
         <v>23673</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>72</v>
@@ -3330,13 +3318,13 @@
         <v>50296</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,7 +3401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F712E7F-F58E-4BFA-BAD6-8DE71C6B422F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6614F7-EDCC-4B67-846D-CF1956E05460}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3430,7 +3418,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3543,7 +3531,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3571,7 +3559,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>18</v>
@@ -3617,7 +3605,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -3686,13 +3674,13 @@
         <v>1494</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3716,13 +3704,13 @@
         <v>1494</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,10 +3725,10 @@
         <v>4211</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -3767,10 +3755,10 @@
         <v>8163</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -3841,13 +3829,13 @@
         <v>790</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3856,13 +3844,13 @@
         <v>2575</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3871,13 +3859,13 @@
         <v>3365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,10 +3880,10 @@
         <v>5201</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -3907,13 +3895,13 @@
         <v>6513</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -3922,13 +3910,13 @@
         <v>11714</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +3984,7 @@
         <v>1440</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
@@ -4017,7 +4005,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4026,13 +4014,13 @@
         <v>1440</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,7 +4035,7 @@
         <v>1525</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
@@ -4065,7 +4053,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -4077,10 +4065,10 @@
         <v>4548</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -4157,7 +4145,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4166,13 +4154,13 @@
         <v>2203</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4181,13 +4169,13 @@
         <v>2873</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,7 +4193,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -4217,13 +4205,13 @@
         <v>2962</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -4232,13 +4220,13 @@
         <v>7282</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4294,13 @@
         <v>4394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -4321,13 +4309,13 @@
         <v>4777</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -4336,13 +4324,13 @@
         <v>9171</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4345,13 @@
         <v>16303</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -4372,13 +4360,13 @@
         <v>16451</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>49</v>
@@ -4387,13 +4375,13 @@
         <v>32754</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,7 +4458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10567556-0D7A-4E87-B854-5CF6903584AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68069F88-3E82-4797-A521-1F9918837926}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4487,7 +4475,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4737,7 +4725,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4746,13 +4734,13 @@
         <v>605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4761,13 +4749,13 @@
         <v>605</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,7 +4773,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -4797,10 +4785,10 @@
         <v>1390</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -4812,10 +4800,10 @@
         <v>4238</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -4886,13 +4874,13 @@
         <v>1374</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4907,7 +4895,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4916,13 +4904,13 @@
         <v>1374</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,10 +4925,10 @@
         <v>3166</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -4955,7 +4943,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>18</v>
@@ -4967,10 +4955,10 @@
         <v>5146</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -5054,13 +5042,13 @@
         <v>1695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -5069,13 +5057,13 @@
         <v>1695</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,10 +5091,10 @@
         <v>2767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -5118,10 +5106,10 @@
         <v>2767</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -5190,13 +5178,13 @@
         <v>1675</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5211,7 +5199,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5220,13 +5208,13 @@
         <v>1675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,10 +5229,10 @@
         <v>2705</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -5259,7 +5247,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>18</v>
@@ -5271,10 +5259,10 @@
         <v>3451</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>16</v>
@@ -5345,13 +5333,13 @@
         <v>3049</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5360,13 +5348,13 @@
         <v>2299</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5375,13 +5363,13 @@
         <v>5348</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5384,13 @@
         <v>8719</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -5411,13 +5399,13 @@
         <v>6883</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -5426,13 +5414,13 @@
         <v>15602</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP21B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP21B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5410C9A-36AD-454A-9A70-150E402FC524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42C62988-EA30-4B85-AAAC-FE8FEC34641B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{75F03843-AE6D-4B48-B804-97938DCD3487}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F47EFFE2-FAA5-4570-8FFA-ACE07B46F771}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="278">
   <si>
     <t>Menores según si estuvo en lista de espera en 2007 (Tasa respuesta: 4,23%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,814 +68,811 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>14,93%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>36,25%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo en lista de espera en 2012 (Tasa respuesta: 4,14%)</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo en lista de espera en 2016 (Tasa respuesta: 2,92%)</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo en lista de espera en 2023 (Tasa respuesta: 1,72%)</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo en lista de espera en 2012 (Tasa respuesta: 4,14%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo en lista de espera en 2016 (Tasa respuesta: 2,92%)</t>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
   <si>
     <t>77,15%</t>
   </si>
   <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo en lista de espera en 2023 (Tasa respuesta: 1,72%)</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
 </sst>
 </file>
@@ -1287,8 +1284,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75EF541-AF45-4203-A1B5-B82C2059F4CE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B0A2D4-FB6C-4294-B859-C1AA3C08A1D8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1405,10 +1402,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1420,81 +1417,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>719</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1295</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>3273</v>
+        <v>3284</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4549</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>3273</v>
+        <v>7833</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,151 +1504,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>3273</v>
+        <v>3860</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5268</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>3273</v>
+        <v>9128</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>719</v>
+        <v>1180</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>576</v>
+        <v>1308</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>1295</v>
+        <v>2489</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>1276</v>
+        <v>9927</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I8" s="7">
-        <v>3284</v>
+        <v>8431</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N8" s="7">
-        <v>4560</v>
+        <v>18357</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,153 +1659,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>1995</v>
+        <v>11107</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>3860</v>
+        <v>9739</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="N9" s="7">
-        <v>5855</v>
+        <v>20846</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1308</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1180</v>
+        <v>726</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>2489</v>
+        <v>726</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>8431</v>
+        <v>6706</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>9927</v>
+        <v>6649</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N11" s="7">
-        <v>18357</v>
+        <v>13354</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,54 +1814,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>9739</v>
+        <v>6706</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I12" s="7">
-        <v>11107</v>
+        <v>7375</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N12" s="7">
-        <v>20846</v>
+        <v>14080</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1867,97 +1870,97 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1315</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>726</v>
+        <v>2028</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>6649</v>
+        <v>3026</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>6706</v>
+        <v>9456</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="7">
         <v>18</v>
       </c>
-      <c r="M14" s="7">
-        <v>21</v>
-      </c>
       <c r="N14" s="7">
-        <v>13354</v>
+        <v>12482</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,153 +1969,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>7375</v>
+        <v>3738</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I15" s="7">
-        <v>6706</v>
+        <v>10771</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N15" s="7">
-        <v>14080</v>
+        <v>14510</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>1315</v>
+        <v>2469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>712</v>
+        <v>4069</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>2028</v>
+        <v>6538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>9456</v>
+        <v>22942</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="I17" s="7">
-        <v>3026</v>
+        <v>29085</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="N17" s="7">
-        <v>12482</v>
+        <v>52027</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,217 +2124,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D18" s="7">
-        <v>10771</v>
+        <v>25411</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="I18" s="7">
-        <v>3738</v>
+        <v>33154</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="N18" s="7">
-        <v>14510</v>
+        <v>58565</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>6</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4069</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2469</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M19" s="7">
-        <v>10</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6538</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>43</v>
-      </c>
-      <c r="D20" s="7">
-        <v>29085</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="7">
-        <v>36</v>
-      </c>
-      <c r="I20" s="7">
-        <v>22942</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M20" s="7">
-        <v>79</v>
-      </c>
-      <c r="N20" s="7">
-        <v>52027</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P20" s="7" t="s">
+      <c r="A19" t="s">
         <v>87</v>
       </c>
-      <c r="Q20" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>49</v>
-      </c>
-      <c r="D21" s="7">
-        <v>33154</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="7">
-        <v>40</v>
-      </c>
-      <c r="I21" s="7">
-        <v>25411</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="7">
-        <v>89</v>
-      </c>
-      <c r="N21" s="7">
-        <v>58565</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2344,8 +2191,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957082EE-2038-4314-8628-4373414724C5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1966DD-9061-4CB6-98DC-8ECCD4C2860D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2361,7 +2208,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2468,90 +2315,94 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>682</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>2156</v>
+        <v>4114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6243</v>
+      </c>
       <c r="J5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
         <v>14</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
       <c r="N5" s="7">
-        <v>2156</v>
+        <v>10357</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,151 +2411,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>2156</v>
+        <v>4114</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6925</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N6" s="7">
-        <v>2156</v>
+        <v>11040</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>682</v>
+        <v>2696</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>683</v>
+        <v>3996</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7">
-        <v>4087</v>
+        <v>7805</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>4114</v>
+        <v>5328</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N8" s="7">
-        <v>8201</v>
+        <v>13133</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,153 +2566,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>4769</v>
+        <v>10501</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I9" s="7">
-        <v>4114</v>
+        <v>6628</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N9" s="7">
-        <v>8884</v>
+        <v>17129</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>2696</v>
+        <v>1888</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>3996</v>
+        <v>1888</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>5328</v>
+        <v>5190</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>7805</v>
+        <v>7888</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
       </c>
       <c r="N11" s="7">
-        <v>13133</v>
+        <v>13077</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,153 +2721,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>6628</v>
+        <v>5190</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="7">
-        <v>10501</v>
+        <v>9776</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N12" s="7">
-        <v>17129</v>
+        <v>14965</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1657</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
-        <v>1888</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1984</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>1888</v>
+        <v>3641</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>7888</v>
+        <v>6564</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>5190</v>
+        <v>7164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" s="7">
         <v>18</v>
       </c>
-      <c r="M14" s="7">
-        <v>20</v>
-      </c>
       <c r="N14" s="7">
-        <v>13077</v>
+        <v>13728</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,153 +2876,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D15" s="7">
-        <v>9776</v>
+        <v>8221</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I15" s="7">
-        <v>5190</v>
+        <v>9148</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>23</v>
       </c>
       <c r="N15" s="7">
-        <v>14965</v>
+        <v>17369</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>1984</v>
+        <v>4353</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>1657</v>
+        <v>5854</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>3641</v>
+        <v>10207</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7">
-        <v>7164</v>
+        <v>23673</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I17" s="7">
-        <v>6564</v>
+        <v>26623</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="N17" s="7">
-        <v>13728</v>
+        <v>50296</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,217 +3031,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D18" s="7">
-        <v>9148</v>
+        <v>28026</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I18" s="7">
-        <v>8221</v>
+        <v>32477</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="N18" s="7">
-        <v>17369</v>
+        <v>60503</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5854</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4353</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M19" s="7">
-        <v>15</v>
-      </c>
-      <c r="N19" s="7">
-        <v>10207</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>37</v>
-      </c>
-      <c r="D20" s="7">
-        <v>26623</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H20" s="7">
-        <v>35</v>
-      </c>
-      <c r="I20" s="7">
-        <v>23673</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M20" s="7">
-        <v>72</v>
-      </c>
-      <c r="N20" s="7">
-        <v>50296</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>46</v>
-      </c>
-      <c r="D21" s="7">
-        <v>32477</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="7">
-        <v>41</v>
-      </c>
-      <c r="I21" s="7">
-        <v>28026</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="7">
+      <c r="A19" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="7">
-        <v>60503</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3401,8 +3098,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6614F7-EDCC-4B67-846D-CF1956E05460}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E495C6D-3FF8-4785-9DDC-403FF56AE88F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3418,7 +3115,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3525,90 +3222,94 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1494</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1494</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>1047</v>
+        <v>3952</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5258</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>1047</v>
+        <v>9210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,151 +3318,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>1047</v>
+        <v>3952</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6752</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N6" s="7">
-        <v>1047</v>
+        <v>10704</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>1494</v>
+        <v>2575</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>1494</v>
+        <v>3365</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>4211</v>
+        <v>6513</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>3952</v>
+        <v>5201</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N8" s="7">
-        <v>8163</v>
+        <v>11714</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,153 +3473,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>5705</v>
+        <v>9088</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7">
-        <v>3952</v>
+        <v>5991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N9" s="7">
-        <v>9657</v>
+        <v>15079</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>2575</v>
+        <v>1440</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>3365</v>
+        <v>1440</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>5201</v>
+        <v>3024</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>6513</v>
+        <v>1525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>11714</v>
+        <v>4548</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,153 +3628,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3024</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2965</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="7">
         <v>9</v>
       </c>
-      <c r="D12" s="7">
-        <v>5991</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="7">
-        <v>15</v>
-      </c>
-      <c r="I12" s="7">
-        <v>9088</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="7">
-        <v>24</v>
-      </c>
       <c r="N12" s="7">
-        <v>15079</v>
+        <v>5988</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>1440</v>
+        <v>2203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1440</v>
+        <v>2873</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>1525</v>
+        <v>2962</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>3024</v>
+        <v>4320</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N14" s="7">
-        <v>4548</v>
+        <v>7282</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,153 +3783,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15" s="7">
-        <v>2965</v>
+        <v>5165</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I15" s="7">
-        <v>3024</v>
+        <v>4990</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N15" s="7">
-        <v>5988</v>
+        <v>10155</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>670</v>
+        <v>4777</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>2203</v>
+        <v>4394</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>2873</v>
+        <v>9171</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>4320</v>
+        <v>16451</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I17" s="7">
-        <v>2962</v>
+        <v>16303</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="N17" s="7">
-        <v>7282</v>
+        <v>32754</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,217 +3938,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7">
-        <v>4990</v>
+        <v>21228</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I18" s="7">
-        <v>5165</v>
+        <v>20697</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="N18" s="7">
-        <v>10155</v>
+        <v>41925</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>6</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4394</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H19" s="7">
-        <v>7</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4777</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M19" s="7">
-        <v>13</v>
-      </c>
-      <c r="N19" s="7">
-        <v>9171</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>23</v>
-      </c>
-      <c r="D20" s="7">
-        <v>16303</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H20" s="7">
-        <v>26</v>
-      </c>
-      <c r="I20" s="7">
-        <v>16451</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M20" s="7">
-        <v>49</v>
-      </c>
-      <c r="N20" s="7">
-        <v>32754</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>29</v>
-      </c>
-      <c r="D21" s="7">
-        <v>20697</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="7">
-        <v>33</v>
-      </c>
-      <c r="I21" s="7">
-        <v>21228</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="7">
-        <v>62</v>
-      </c>
-      <c r="N21" s="7">
-        <v>41925</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>89</v>
+      <c r="A19" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4458,8 +4005,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68069F88-3E82-4797-A521-1F9918837926}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133E10AA-2DDB-4F13-A974-0AC45C71FBD7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4475,7 +4022,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4576,88 +4123,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>590</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>590</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1403</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3122</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4525</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,48 +4225,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1993</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3122</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="N6" s="7">
+        <v>5115</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4719,94 +4284,94 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1430</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>605</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>605</v>
+        <v>1430</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>2848</v>
+        <v>1947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>1390</v>
+        <v>3345</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>4238</v>
+        <v>5292</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,54 +4380,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>2848</v>
+        <v>1947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9" s="7">
-        <v>1995</v>
+        <v>4775</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
       </c>
       <c r="N9" s="7">
-        <v>4843</v>
+        <v>6722</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4871,97 +4436,93 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1374</v>
+        <v>1653</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>1374</v>
+        <v>1653</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>3166</v>
+        <v>2883</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>5146</v>
+        <v>2883</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,54 +4531,52 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>4540</v>
+        <v>4536</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="M12" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>6520</v>
+        <v>4536</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5025,94 +4584,98 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1695</v>
+        <v>1771</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1695</v>
+        <v>1771</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>739</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>2767</v>
+        <v>2792</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>2767</v>
+        <v>3531</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,151 +4684,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>739</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
       </c>
       <c r="I15" s="7">
-        <v>4462</v>
+        <v>4563</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N15" s="7">
-        <v>4462</v>
+        <v>5302</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>1675</v>
+        <v>2243</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>3201</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>1675</v>
+        <v>5443</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>2705</v>
+        <v>6972</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I17" s="7">
-        <v>746</v>
+        <v>9260</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="N17" s="7">
-        <v>3451</v>
+        <v>16232</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>16</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,217 +4839,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>4380</v>
+        <v>9215</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>18</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
       <c r="I18" s="7">
-        <v>746</v>
+        <v>12461</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="N18" s="7">
-        <v>5126</v>
+        <v>21675</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3049</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2299</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5348</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>14</v>
-      </c>
-      <c r="D20" s="7">
-        <v>8719</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H20" s="7">
-        <v>12</v>
-      </c>
-      <c r="I20" s="7">
-        <v>6883</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M20" s="7">
-        <v>26</v>
-      </c>
-      <c r="N20" s="7">
-        <v>15602</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>18</v>
-      </c>
-      <c r="D21" s="7">
-        <v>11768</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="7">
-        <v>15</v>
-      </c>
-      <c r="I21" s="7">
-        <v>9182</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="7">
-        <v>33</v>
-      </c>
-      <c r="N21" s="7">
-        <v>20950</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>89</v>
+      <c r="A19" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
